--- a/实施周数据-张磊组/11月/48周/实施周数据-张磊组-姚亚文.xlsx
+++ b/实施周数据-张磊组/11月/48周/实施周数据-张磊组-姚亚文.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11988\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zhangleizu\实施周数据-张磊组\11月\48周\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -149,78 +149,7 @@
     <t>加班内容</t>
   </si>
   <si>
-    <t>SaaS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (甜蜜蜜)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>姚亚文</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市静安区福享多饭店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣鲜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣鲜（梅川路店）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>李智</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>付兵峰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海甜圣餐饮有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海甜圣餐饮有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (甜蜜蜜)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜蜜蜜(凌空店)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜蜜蜜(中区广场店)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>万三凤</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -232,39 +161,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>甜蜜蜜（正大乐城堂食）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜蜜蜜（正大乐城外卖店）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜蜜蜜（中山公园店）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板娘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>程洋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>35周</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜蜜蜜（和颐漕宝路店）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪明俐</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -272,166 +169,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>甜蜜蜜（十六铺店）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>36周</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>田翠翠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市虹口区皇芝岚咖啡馆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>royaltea皇茶</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇茶圃庭小街店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤春燕</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇茶绿洲店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>张子俊</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>摆渡侠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚亚文</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>张莹</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>摆渡侠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老港记甜品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MY SALAD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇茶安亭街店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老港记甜品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老港记甜品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊亮亮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市虹口区皇芝岚咖啡馆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> royaltea皇茶</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾治强</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-  </si>
-  <si>
-    <t>李贞贞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>小杨生煎临港店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MY SALAD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽豪（青岛百丽店）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市虹口区皇芝岚咖啡馆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海甜圣餐饮有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (甜蜜蜜)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>(甜蜜蜜)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑海峰</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -440,30 +182,6 @@
   </si>
   <si>
     <t>公司值班</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>米斯特蚌埠东海大道店上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>米斯特淮安淮海东路店上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>米斯特江阴万达店上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>米斯特南京新街口店上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>米斯特南京仙林店上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>米斯特合肥万达文旅城店上线</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -939,7 +657,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,6 +837,15 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,16 +864,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1444,25 +1161,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1512,9 +1229,9 @@
       <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="66" t="s">
-        <v>60</v>
+      <c r="A3" s="66"/>
+      <c r="B3" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>15</v>
@@ -1553,8 +1270,8 @@
       <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
@@ -1592,8 +1309,8 @@
       <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
@@ -1638,8 +1355,8 @@
       <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="21" t="s">
         <v>18</v>
       </c>
@@ -1677,8 +1394,8 @@
       <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
@@ -1716,8 +1433,8 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="21" t="s">
         <v>20</v>
       </c>
@@ -1755,8 +1472,8 @@
       <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="21" t="s">
         <v>21</v>
       </c>
@@ -1794,8 +1511,8 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
@@ -1833,8 +1550,8 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="31" t="s">
         <v>23</v>
       </c>
@@ -1934,9 +1651,9 @@
       <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66" t="s">
-        <v>61</v>
+      <c r="A13" s="66"/>
+      <c r="B13" s="69" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>15</v>
@@ -1975,8 +1692,8 @@
       <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="21" t="s">
         <v>16</v>
       </c>
@@ -2014,8 +1731,8 @@
       <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
@@ -2058,8 +1775,8 @@
       <c r="Q15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="21" t="s">
         <v>18</v>
       </c>
@@ -2097,8 +1814,8 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
@@ -2136,8 +1853,8 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="21" t="s">
         <v>20</v>
       </c>
@@ -2175,8 +1892,8 @@
       <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="21" t="s">
         <v>21</v>
       </c>
@@ -2214,8 +1931,8 @@
       <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="25" t="s">
         <v>22</v>
       </c>
@@ -2253,8 +1970,8 @@
       <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="31" t="s">
         <v>23</v>
       </c>
@@ -2351,9 +2068,9 @@
       <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="66" t="s">
-        <v>67</v>
+      <c r="A23" s="66"/>
+      <c r="B23" s="69" t="s">
+        <v>44</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>15</v>
@@ -2392,8 +2109,8 @@
       <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="21" t="s">
         <v>16</v>
       </c>
@@ -2431,8 +2148,8 @@
       <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
@@ -2475,8 +2192,8 @@
       <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
@@ -2514,8 +2231,8 @@
       <c r="Q26" s="40"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="21" t="s">
         <v>19</v>
       </c>
@@ -2553,8 +2270,8 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="21" t="s">
         <v>20</v>
       </c>
@@ -2592,8 +2309,8 @@
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="21" t="s">
         <v>21</v>
       </c>
@@ -2631,8 +2348,8 @@
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="B30" s="67"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="25" t="s">
         <v>22</v>
       </c>
@@ -2670,8 +2387,8 @@
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="31" t="s">
         <v>23</v>
       </c>
@@ -2768,9 +2485,9 @@
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="66" t="s">
-        <v>73</v>
+      <c r="A33" s="66"/>
+      <c r="B33" s="69" t="s">
+        <v>46</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>15</v>
@@ -2809,8 +2526,8 @@
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="67"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="21" t="s">
         <v>16</v>
       </c>
@@ -2848,8 +2565,8 @@
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="67"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="21" t="s">
         <v>17</v>
       </c>
@@ -2892,8 +2609,8 @@
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="67"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="21" t="s">
         <v>18</v>
       </c>
@@ -2931,8 +2648,8 @@
       <c r="Q36" s="40"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="67"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="21" t="s">
         <v>19</v>
       </c>
@@ -2970,8 +2687,8 @@
       <c r="Q37" s="40"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="67"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="21" t="s">
         <v>20</v>
       </c>
@@ -3009,8 +2726,8 @@
       <c r="Q38" s="40"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="67"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="21" t="s">
         <v>21</v>
       </c>
@@ -3048,8 +2765,8 @@
       <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="67"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="25" t="s">
         <v>22</v>
       </c>
@@ -3087,8 +2804,8 @@
       <c r="Q40" s="40"/>
     </row>
     <row r="41" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="31" t="s">
         <v>23</v>
       </c>
@@ -3185,9 +2902,9 @@
       <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="66" t="s">
-        <v>113</v>
+      <c r="A43" s="66"/>
+      <c r="B43" s="69" t="s">
+        <v>48</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>15</v>
@@ -3226,8 +2943,8 @@
       <c r="Q43" s="40"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="67"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="21" t="s">
         <v>16</v>
       </c>
@@ -3265,8 +2982,8 @@
       <c r="Q44" s="40"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="67"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="21" t="s">
         <v>17</v>
       </c>
@@ -3311,8 +3028,8 @@
       <c r="Q45" s="40"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="67"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -3350,8 +3067,8 @@
       <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="67"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="21" t="s">
         <v>19</v>
       </c>
@@ -3389,8 +3106,8 @@
       <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="67"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="21" t="s">
         <v>20</v>
       </c>
@@ -3428,8 +3145,8 @@
       <c r="Q48" s="40"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="67"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="21" t="s">
         <v>21</v>
       </c>
@@ -3467,8 +3184,8 @@
       <c r="Q49" s="40"/>
     </row>
     <row r="50" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="64"/>
-      <c r="B50" s="67"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="25" t="s">
         <v>22</v>
       </c>
@@ -3506,8 +3223,8 @@
       <c r="Q50" s="40"/>
     </row>
     <row r="51" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="65"/>
-      <c r="B51" s="68"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="31" t="s">
         <v>23</v>
       </c>
@@ -3558,17 +3275,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="A33:A41"/>
     <mergeCell ref="B33:B41"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3645,664 +3362,169 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>33</v>
-      </c>
-      <c r="B2" s="54">
-        <v>42961</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="4">
-        <v>76088323</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="4">
-        <v>13838434955</v>
-      </c>
+      <c r="A2" s="8"/>
+      <c r="B2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>33</v>
-      </c>
-      <c r="B3" s="54">
-        <v>42961</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="4">
-        <v>76086729</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="4">
-        <v>18669851000</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>33</v>
-      </c>
-      <c r="B4" s="54">
-        <v>42963</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4">
-        <v>76088329</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="4">
-        <v>13761666277</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>34</v>
-      </c>
-      <c r="B5" s="54">
-        <v>42970</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4">
-        <v>76088337</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="4">
-        <v>13818367077</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>34</v>
-      </c>
-      <c r="B6" s="54">
-        <v>42970</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="4">
-        <v>76088339</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L6" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="4">
-        <v>13818367077</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>34</v>
-      </c>
-      <c r="B7" s="54">
-        <v>42970</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4">
-        <v>76088331</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="4">
-        <v>13818367077</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>35</v>
-      </c>
-      <c r="B8" s="54">
-        <v>42978</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="4">
-        <v>76090176</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="4">
-        <v>15221645801</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>36</v>
-      </c>
-      <c r="B9" s="54">
-        <v>42984</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4">
-        <v>76088330</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="4">
-        <v>15051501330</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>37</v>
-      </c>
-      <c r="B10" s="54">
-        <v>42991</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4">
-        <v>76092519</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="4">
-        <v>13681670235</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>39</v>
-      </c>
-      <c r="B11" s="54">
-        <v>43003</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="4">
-        <v>76092695</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="4">
-        <v>18516003860</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>39</v>
-      </c>
-      <c r="B12" s="54">
-        <v>43003</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="4">
-        <v>76069579</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="4">
-        <v>13585853013</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>40</v>
-      </c>
-      <c r="B13" s="54">
-        <v>43007</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="4">
-        <v>76091381</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="4">
-        <v>15102147701</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>40</v>
-      </c>
-      <c r="B14" s="54">
-        <v>43007</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="4">
-        <v>76096310</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="4">
-        <v>18116357678</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>44</v>
-      </c>
-      <c r="B15" s="54">
-        <v>43033</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="4">
-        <v>76098032</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L15" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="4">
-        <v>18620578189</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>44</v>
-      </c>
-      <c r="B16" s="54">
-        <v>43033</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="4">
-        <v>76100085</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="4">
-        <v>15863064359</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -4497,7 +3719,7 @@
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="D77" s="55" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -6099,10 +5321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6112,7 +5334,7 @@
     <col min="3" max="3" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -6123,126 +5345,84 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B2" s="60">
-        <v>43031</v>
+        <v>43036</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="72"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B3" s="60">
-        <v>43036</v>
+        <v>43057</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="60">
-        <v>43038</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="60">
-        <v>43048</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="60">
-        <v>43052</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="60">
-        <v>43055</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="60">
-        <v>43057</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="60">
-        <v>43041</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="62"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
